--- a/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Shell_168\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Pliki GitHub\LocalEnShProject-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C405620B-4C7C-4174-8B2E-24CB13779E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB404E24-3515-42F5-8792-91EE10B89540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COM_BND" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Wymagana minimalna produkcja energii elektrycznej z OZE [PJ]</t>
   </si>
@@ -174,12 +174,18 @@
   <si>
     <t>FX</t>
   </si>
+  <si>
+    <t>ELC_IND_FIN_DEM</t>
+  </si>
+  <si>
+    <t>SUM_IND_ELC_RES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="31">
+  <numFmts count="29">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
@@ -209,10 +215,8 @@
     <numFmt numFmtId="188" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="189" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="190" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="192" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="117">
+  <fonts count="116">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -935,11 +939,6 @@
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="MS Sans Serif"/>
     </font>
     <font>
       <u/>
@@ -4019,15 +4018,15 @@
     <xf numFmtId="9" fontId="102" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="102" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="114" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
@@ -4057,9 +4056,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="43" borderId="18" xfId="1114" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="190" fontId="17" fillId="46" borderId="20" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2144"/>
     <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="2144" applyFont="1" applyFill="1"/>
     <xf numFmtId="190" fontId="24" fillId="47" borderId="18" xfId="1060" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4071,6 +4067,9 @@
     <xf numFmtId="185" fontId="24" fillId="43" borderId="0" xfId="2144" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="2144" applyNumberFormat="1"/>
     <xf numFmtId="190" fontId="24" fillId="47" borderId="21" xfId="1060" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="17" fillId="46" borderId="20" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5139,7 +5138,6 @@
     <cellStyle name="Neutralne 9_COM_BND" xfId="1056" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
     <cellStyle name="Neutralne_CHP" xfId="1057" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
     <cellStyle name="no dec" xfId="1058" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="1059" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
     <cellStyle name="Normal - Style1 2" xfId="2195" xr:uid="{7CDD5E36-9C9A-4BC1-A559-FEC3C5910260}"/>
     <cellStyle name="Normal - Style1 3" xfId="2147" xr:uid="{F90D66D8-4A91-4ACD-9280-ED5417E49CB9}"/>
@@ -5203,6 +5201,7 @@
     <cellStyle name="Normal_Sheet3" xfId="1112" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
     <cellStyle name="Normale_B2020" xfId="1113" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="1114" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="1115" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
     <cellStyle name="Normalny 10 2" xfId="1116" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
     <cellStyle name="Normalny 10 2 2" xfId="1117" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
@@ -6676,7 +6675,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6714,7 +6713,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6786,7 +6785,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6964,7 +6963,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6972,7 +6971,7 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
@@ -7078,11 +7077,11 @@
       <c r="F7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="16" t="s">
         <v>17</v>
       </c>
@@ -7095,10 +7094,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>46</v>
@@ -7107,16 +7106,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="13">
-        <f>565.2*0.5</f>
-        <v>282.60000000000002</v>
+        <v>56.52000000000001</v>
       </c>
       <c r="H8" s="13">
-        <f>565.2*0.5</f>
-        <v>282.60000000000002</v>
+        <f>G8</f>
+        <v>56.52000000000001</v>
       </c>
       <c r="I8" s="13">
-        <f>565.2*0.5</f>
-        <v>282.60000000000002</v>
+        <f>H8</f>
+        <v>56.52000000000001</v>
       </c>
       <c r="J8" s="12">
         <v>5</v>
@@ -7127,110 +7125,110 @@
       <c r="B10" s="5"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="38.25">
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="26.25" thickBot="1">
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="23">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="22">
         <v>1</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7245,15 +7243,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="12" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="5ae10a33478425c8b0682342cd902bb6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4d464c5e04a95514152bf5b8c9c7854" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7472,6 +7461,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7484,14 +7482,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B0505-87C0-4533-9D1B-20F030974763}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9690AA4-2973-4C8B-AFF5-174A0EBF4012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7510,6 +7500,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B0505-87C0-4533-9D1B-20F030974763}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1414681-578E-43B8-8934-BC5759CBC3B5}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Pliki GitHub\LocalEnShProject-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB404E24-3515-42F5-8792-91EE10B89540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0009B27A-A4E8-42B5-B461-388B847F53C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,13 +172,13 @@
     <t>ELC_FIN</t>
   </si>
   <si>
-    <t>FX</t>
-  </si>
-  <si>
     <t>ELC_IND_FIN_DEM</t>
   </si>
   <si>
     <t>SUM_IND_ELC_RES</t>
+  </si>
+  <si>
+    <t>LO</t>
   </si>
 </sst>
 </file>
@@ -6963,14 +6963,14 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -7094,13 +7094,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -7243,6 +7243,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="12" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="5ae10a33478425c8b0682342cd902bb6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4d464c5e04a95514152bf5b8c9c7854" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7461,27 +7481,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1414681-578E-43B8-8934-BC5759CBC3B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B0505-87C0-4533-9D1B-20F030974763}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9690AA4-2973-4C8B-AFF5-174A0EBF4012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7498,23 +7517,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B0505-87C0-4533-9D1B-20F030974763}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1414681-578E-43B8-8934-BC5759CBC3B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Pliki GitHub\LocalEnShProject-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0009B27A-A4E8-42B5-B461-388B847F53C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B734124-2B80-4F01-901A-60EC50AB1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,10 +175,10 @@
     <t>ELC_IND_FIN_DEM</t>
   </si>
   <si>
-    <t>SUM_IND_ELC_RES</t>
+    <t>LO</t>
   </si>
   <si>
-    <t>LO</t>
+    <t>ELC_IND_RES_SUM</t>
   </si>
 </sst>
 </file>
@@ -6963,7 +6963,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7097,10 +7097,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -7254,15 +7254,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="12" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="5ae10a33478425c8b0682342cd902bb6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4d464c5e04a95514152bf5b8c9c7854" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7481,6 +7472,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1414681-578E-43B8-8934-BC5759CBC3B5}">
   <ds:schemaRefs>
@@ -7493,14 +7493,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B0505-87C0-4533-9D1B-20F030974763}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9690AA4-2973-4C8B-AFF5-174A0EBF4012}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7517,4 +7509,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B0505-87C0-4533-9D1B-20F030974763}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_ANNUAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\Shell\Pliki GitHub\LocalEnShProject-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_FULL\SuppXLS\Policy_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B734124-2B80-4F01-901A-60EC50AB1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53BBC11-87F8-4059-91D9-64376CEA248E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Wymagana minimalna produkcja energii elektrycznej z OZE [PJ]</t>
   </si>
@@ -67,30 +67,6 @@
     <t>UC_Desc</t>
   </si>
   <si>
-    <t>\I: Nazwa ograniczenia użytkownika</t>
-  </si>
-  <si>
-    <t>Filtr procesów: nazwa procesu</t>
-  </si>
-  <si>
-    <t>Filtr dóbr: nazwa dobra</t>
-  </si>
-  <si>
-    <t>Znak ograniczenia w równaniu</t>
-  </si>
-  <si>
-    <t>Współczynnik zmiennej VAR_FLO</t>
-  </si>
-  <si>
-    <t>Wartość prawej strony równania</t>
-  </si>
-  <si>
-    <t>Kod inter/ ekstrapolacji</t>
-  </si>
-  <si>
-    <t>Opis ograniczenia użytkownika</t>
-  </si>
-  <si>
     <t>UC_RHSRTS~2035</t>
   </si>
   <si>
@@ -103,89 +79,77 @@
     <t>~UC_SETS: R_E: NL</t>
   </si>
   <si>
-    <t>TechName</t>
-  </si>
-  <si>
-    <t>*TechDesc</t>
-  </si>
-  <si>
-    <t>Comm-IN</t>
-  </si>
-  <si>
-    <t>Comm-OUT</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>CAP2ACT</t>
-  </si>
-  <si>
-    <t>\I: Technology Name</t>
-  </si>
-  <si>
-    <t>Technology Description</t>
-  </si>
-  <si>
-    <t>Commodity Input</t>
-  </si>
-  <si>
-    <t>Commodity Output</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Capacity to Activity Factor</t>
-  </si>
-  <si>
-    <t>\I: Nazwa procesu</t>
-  </si>
-  <si>
-    <t>Opis procesu</t>
-  </si>
-  <si>
-    <t>Dobro na wejściu</t>
-  </si>
-  <si>
-    <t>Dobro na wyjściu</t>
-  </si>
-  <si>
-    <t>Sprawność</t>
-  </si>
-  <si>
-    <t>Przelicz</t>
-  </si>
-  <si>
     <t>ELC_FIN_DEM</t>
-  </si>
-  <si>
-    <t>Electricity - Final Energy Demand</t>
-  </si>
-  <si>
-    <t>ELC_GRID</t>
   </si>
   <si>
     <t>ELC_GRID_RES</t>
   </si>
   <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>\I: Name of the constraint</t>
+  </si>
+  <si>
+    <t>Process filter: process name</t>
+  </si>
+  <si>
+    <t>Commodiy filter: commodity name</t>
+  </si>
+  <si>
+    <t>Lim type in the euqation</t>
+  </si>
+  <si>
+    <t>Coefficient next to  VAR_FLO</t>
+  </si>
+  <si>
+    <t>Value of the RHS</t>
+  </si>
+  <si>
+    <t>Interpolation code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CommName</t>
+  </si>
+  <si>
+    <t>\I: Commodity Name</t>
+  </si>
+  <si>
+    <t>Annual Demand Value [PJ]</t>
+  </si>
+  <si>
     <t>ELC_FIN</t>
   </si>
   <si>
-    <t>ELC_IND_FIN_DEM</t>
+    <t>Supportive calculations below:</t>
   </si>
   <si>
-    <t>LO</t>
+    <t>TWh</t>
   </si>
   <si>
-    <t>ELC_IND_RES_SUM</t>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENTSO data points</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~2045</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~2050</t>
+  </si>
+  <si>
+    <t>Coppied from VT_MODEL_DMD_V01:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="29">
+  <numFmts count="30">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;\ _z_ł_-;_-@_-"/>
@@ -215,6 +179,7 @@
     <numFmt numFmtId="188" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="189" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="190" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="191" formatCode="0.0"/>
   </numFmts>
   <fonts count="116">
     <font>
@@ -969,7 +934,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1224,8 +1189,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1484,6 +1461,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4029,7 +4017,7 @@
     <xf numFmtId="0" fontId="115" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="71" fillId="0" borderId="0" xfId="1112" applyNumberFormat="1" applyFont="1"/>
@@ -4045,7 +4033,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="17" fillId="43" borderId="18" xfId="1116" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="190" fontId="94" fillId="45" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4056,21 +4043,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="43" borderId="18" xfId="1114" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2144"/>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="2144" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="24" fillId="47" borderId="18" xfId="1060" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="2" fillId="28" borderId="21" xfId="2144" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="24" fillId="43" borderId="0" xfId="2144" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" xfId="2144" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="24" fillId="47" borderId="21" xfId="1060" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="190" fontId="17" fillId="46" borderId="20" xfId="1060" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="190" fontId="2" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="24" fillId="47" borderId="22" xfId="1060" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="190" fontId="24" fillId="47" borderId="22" xfId="1060" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="191" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="43" borderId="18" xfId="1116" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2202">
@@ -5138,6 +5151,7 @@
     <cellStyle name="Neutralne 9_COM_BND" xfId="1056" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
     <cellStyle name="Neutralne_CHP" xfId="1057" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
     <cellStyle name="no dec" xfId="1058" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="1059" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
     <cellStyle name="Normal - Style1 2" xfId="2195" xr:uid="{7CDD5E36-9C9A-4BC1-A559-FEC3C5910260}"/>
     <cellStyle name="Normal - Style1 3" xfId="2147" xr:uid="{F90D66D8-4A91-4ACD-9280-ED5417E49CB9}"/>
@@ -5201,7 +5215,6 @@
     <cellStyle name="Normal_Sheet3" xfId="1112" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
     <cellStyle name="Normale_B2020" xfId="1113" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="1114" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="1115" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
     <cellStyle name="Normalny 10 2" xfId="1116" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
     <cellStyle name="Normalny 10 2 2" xfId="1117" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
@@ -6299,14 +6312,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>110957</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7280391" cy="624530"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="7811754" cy="624530"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="pole tekstowe 5">
@@ -6320,8 +6333,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="574675" y="2960102"/>
-              <a:ext cx="7280391" cy="624530"/>
+              <a:off x="193675" y="2868194"/>
+              <a:ext cx="7811754" cy="624530"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6360,8 +6373,13 @@
                         <m:chr m:val="∑"/>
                         <m:supHide m:val="on"/>
                         <m:ctrlPr>
-                          <a:rPr lang="pl-PL" sz="1600" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:naryPr>
@@ -6370,14 +6388,24 @@
                           <m:rPr>
                             <m:brk m:alnAt="7"/>
                           </m:rPr>
-                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>𝑝</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>𝑟𝑜𝑐𝑒𝑠</m:t>
                         </m:r>
@@ -6389,7 +6417,96 @@
                             <m:nor/>
                           </m:rPr>
                           <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>UC</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>FLO</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>x</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>  </m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>VAR</m:t>
                         </m:r>
@@ -6398,7 +6515,12 @@
                             <m:nor/>
                           </m:rPr>
                           <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>_</m:t>
                         </m:r>
@@ -6407,74 +6529,163 @@
                             <m:nor/>
                           </m:rPr>
                           <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>FLO</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>(</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>𝑝𝑟𝑜𝑐𝑒𝑠</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>, "</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝐸𝐿𝐸</m:t>
+                          <m:t>𝐸𝐿𝐶</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>_</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑆𝑁</m:t>
+                          <m:t>𝐺𝑅𝐼𝐷</m:t>
                         </m:r>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅𝐸𝑆</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>"</m:t>
                         </m:r>
                       </m:e>
                     </m:nary>
                     <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
                       <m:t>) </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>×</m:t>
                     </m:r>
                     <m:r>
                       <m:rPr>
                         <m:nor/>
                       </m:rPr>
                       <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>≥</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
                       <m:t>UC</m:t>
                     </m:r>
@@ -6483,8 +6694,12 @@
                         <m:nor/>
                       </m:rPr>
                       <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
                       <m:t>_</m:t>
                     </m:r>
@@ -6493,113 +6708,97 @@
                         <m:nor/>
                       </m:rPr>
                       <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>FLO</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>≥</m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>UC</m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>_</m:t>
-                    </m:r>
-                    <m:r>
-                      <m:rPr>
-                        <m:nor/>
-                      </m:rPr>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
                       <m:t>RHSRTS</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
                       <m:t>      </m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑑𝑙𝑎</m:t>
+                      <m:t>𝑓𝑜𝑟</m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>  </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑒𝑎𝑐h</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
                       <m:t> </m:t>
                     </m:r>
                     <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
+                      <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑘𝑎</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>ż</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑑𝑒𝑔𝑜</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1600" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑟𝑜𝑘𝑢</m:t>
+                      <m:t>𝑦𝑒𝑎𝑟</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="pl-PL" sz="1100"/>
+              <a:endParaRPr lang="pl-PL" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="pole tekstowe 5">
@@ -6613,8 +6812,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="574675" y="2960102"/>
-              <a:ext cx="7280391" cy="624530"/>
+              <a:off x="193675" y="2868194"/>
+              <a:ext cx="7811754" cy="624530"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6643,25 +6842,16 @@
             <a:p>
               <a:pPr/>
               <a:r>
-                <a:rPr lang="pl-PL" sz="1600" i="0">
+                <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∑</a:t>
+                <a:t>∑_𝑝𝑟𝑜𝑐𝑒𝑠▒〖"UC_FLO  x  VAR_FLO" (𝑝𝑟𝑜𝑐𝑒𝑠, "𝐸𝐿𝐶_𝐺𝑅𝐼𝐷_𝑅𝐸𝑆"〗) " "≥"UC_RHSRTS"      𝑓𝑜𝑟  𝑒𝑎𝑐ℎ 𝑦𝑒𝑎𝑟</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_𝑝𝑟𝑜𝑐𝑒𝑠▒〖"VAR_FLO" (𝑝𝑟𝑜𝑐𝑒𝑠, "𝐸𝐿𝐸_𝑆𝑁"〗) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1600" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>×"UC_FLO"≥"UC_RHSRTS"      𝑑𝑙𝑎 𝑘𝑎ż𝑑𝑒𝑔𝑜 𝑟𝑜𝑘𝑢</a:t>
-              </a:r>
-              <a:endParaRPr lang="pl-PL" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -6675,7 +6865,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6713,7 +6903,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6785,7 +6975,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6960,29 +7150,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="15" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>0</v>
@@ -7026,213 +7216,300 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="2:21" ht="31.7" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>19</v>
+      <c r="H6" s="14" t="s">
+        <v>11</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>20</v>
+      <c r="I6" s="14" t="s">
+        <v>12</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B7" s="16" t="s">
-        <v>11</v>
+      <c r="B7" s="15" t="s">
+        <v>18</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>12</v>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>13</v>
+      <c r="D7" s="15" t="s">
+        <v>20</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>14</v>
+      <c r="E7" s="15" t="s">
+        <v>21</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>15</v>
+      <c r="F7" s="15" t="s">
+        <v>22</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>16</v>
+      <c r="G7" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="16" t="s">
-        <v>17</v>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="15" t="s">
+        <v>24</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>18</v>
+      <c r="M7" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="42" customHeight="1" thickBot="1">
-      <c r="B8" s="17" t="s">
-        <v>21</v>
+      <c r="B8" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>48</v>
+      <c r="D8" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
-        <v>56.52000000000001</v>
+      <c r="G8" s="32">
+        <f>0.5*G22</f>
+        <v>282.60000000000002</v>
       </c>
-      <c r="H8" s="13">
-        <f>G8</f>
-        <v>56.52000000000001</v>
+      <c r="H8" s="32">
+        <f t="shared" ref="H8:K8" si="0">0.5*H22</f>
+        <v>349.01712328767064</v>
       </c>
-      <c r="I8" s="13">
-        <f>H8</f>
-        <v>56.52000000000001</v>
+      <c r="I8" s="32">
+        <f t="shared" si="0"/>
+        <v>414</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="32">
+        <f t="shared" si="0"/>
+        <v>476.97493150684971</v>
+      </c>
+      <c r="K8" s="32">
+        <f t="shared" si="0"/>
+        <v>540.95383561644087</v>
+      </c>
+      <c r="L8" s="12">
         <v>5</v>
       </c>
-      <c r="K8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="5"/>
     </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="21" t="s">
-        <v>23</v>
+    <row r="17" spans="3:11">
+      <c r="D17" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="21" t="s">
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="D20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="E20" s="21">
+        <v>2023</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2025</v>
+      </c>
+      <c r="G20" s="21">
+        <v>2030</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2035</v>
+      </c>
+      <c r="I20" s="21">
+        <v>2040</v>
+      </c>
+      <c r="J20" s="21">
+        <v>2045</v>
+      </c>
+      <c r="K20" s="21">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="38.25" customHeight="1">
+      <c r="D21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="E21" s="23" t="s">
         <v>28</v>
       </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
     </row>
-    <row r="24" spans="3:8" ht="38.25">
-      <c r="C24" s="24" t="s">
+    <row r="22" spans="3:11">
+      <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="E22" s="24">
+        <f t="shared" ref="E22:K22" si="1">E27*3.6</f>
+        <v>393.80400000000003</v>
+      </c>
+      <c r="F22" s="24">
+        <f t="shared" si="1"/>
+        <v>442.11863013698968</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="1"/>
+        <v>565.20000000000005</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="1"/>
+        <v>698.03424657534129</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="1"/>
+        <v>828</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" si="1"/>
+        <v>953.94986301369943</v>
+      </c>
+      <c r="K22" s="24">
+        <f t="shared" si="1"/>
+        <v>1081.9076712328817</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="E24" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="E26" s="21">
+        <v>2023</v>
+      </c>
+      <c r="F26" s="21">
+        <v>2025</v>
+      </c>
+      <c r="G26" s="21">
+        <v>2030</v>
+      </c>
+      <c r="H26" s="21">
+        <v>2035</v>
+      </c>
+      <c r="I26" s="21">
+        <v>2040</v>
+      </c>
+      <c r="J26" s="21">
+        <v>2045</v>
+      </c>
+      <c r="K26" s="21">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="D27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="E27" s="28">
+        <v>109.39</v>
+      </c>
+      <c r="F27" s="29">
+        <f>_xlfn.FORECAST.LINEAR(2025,{109.39;157;230}, {2023;2030;2040})</f>
+        <v>122.81073059360824</v>
+      </c>
+      <c r="G27" s="28">
+        <v>157</v>
+      </c>
+      <c r="H27" s="29">
+        <f>_xlfn.FORECAST.LINEAR(2035,{109.39;157;230}, {2023;2030;2040})</f>
+        <v>193.89840182648368</v>
+      </c>
+      <c r="I27" s="28">
+        <v>230</v>
+      </c>
+      <c r="J27" s="29">
+        <f>_xlfn.FORECAST.LINEAR(2045,{109.39;157;230}, {2023;2030;2040})</f>
+        <v>264.98607305936093</v>
+      </c>
+      <c r="K27" s="29">
+        <f>_xlfn.FORECAST.LINEAR(2050,{109.39;157;230}, {2023;2030;2040})</f>
+        <v>300.52990867580047</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="E29" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="24" t="s">
+    </row>
+    <row r="30" spans="3:11">
+      <c r="E30" s="31"/>
+      <c r="F30" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="26.25" thickBot="1">
-      <c r="C25" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="22">
-        <v>1</v>
-      </c>
-      <c r="H26" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G7:I7"/>
+  <mergeCells count="2">
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="E21:K21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7243,14 +7520,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7473,21 +7748,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1414681-578E-43B8-8934-BC5759CBC3B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B0505-87C0-4533-9D1B-20F030974763}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7512,9 +7786,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91B0505-87C0-4533-9D1B-20F030974763}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1414681-578E-43B8-8934-BC5759CBC3B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>